--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cadm1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.29804422199221</v>
+        <v>4.199582666666667</v>
       </c>
       <c r="H2">
-        <v>3.29804422199221</v>
+        <v>12.598748</v>
       </c>
       <c r="I2">
-        <v>0.3141750237007455</v>
+        <v>0.3470882463138872</v>
       </c>
       <c r="J2">
-        <v>0.3141750237007455</v>
+        <v>0.3745187327618799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="N2">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="O2">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="P2">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="Q2">
-        <v>7.316340461766479</v>
+        <v>10.56608279601067</v>
       </c>
       <c r="R2">
-        <v>7.316340461766479</v>
+        <v>95.094745164096</v>
       </c>
       <c r="S2">
-        <v>0.03610746058892764</v>
+        <v>0.03047898848105798</v>
       </c>
       <c r="T2">
-        <v>0.03610746058892764</v>
+        <v>0.03701774137331005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.29804422199221</v>
+        <v>4.199582666666667</v>
       </c>
       <c r="H3">
-        <v>3.29804422199221</v>
+        <v>12.598748</v>
       </c>
       <c r="I3">
-        <v>0.3141750237007455</v>
+        <v>0.3470882463138872</v>
       </c>
       <c r="J3">
-        <v>0.3141750237007455</v>
+        <v>0.3745187327618799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="N3">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="O3">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="P3">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="Q3">
-        <v>22.0757357486857</v>
+        <v>42.41649326294311</v>
       </c>
       <c r="R3">
-        <v>22.0757357486857</v>
+        <v>381.748439366488</v>
       </c>
       <c r="S3">
-        <v>0.1089477400187574</v>
+        <v>0.1223548816081804</v>
       </c>
       <c r="T3">
-        <v>0.1089477400187574</v>
+        <v>0.148604057708426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.29804422199221</v>
+        <v>4.199582666666667</v>
       </c>
       <c r="H4">
-        <v>3.29804422199221</v>
+        <v>12.598748</v>
       </c>
       <c r="I4">
-        <v>0.3141750237007455</v>
+        <v>0.3470882463138872</v>
       </c>
       <c r="J4">
-        <v>0.3141750237007455</v>
+        <v>0.3745187327618799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="N4">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="O4">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="P4">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="Q4">
-        <v>6.846622864175725</v>
+        <v>27.06876144308312</v>
       </c>
       <c r="R4">
-        <v>6.846622864175725</v>
+        <v>243.618852987748</v>
       </c>
       <c r="S4">
-        <v>0.03378931947294697</v>
+        <v>0.07808271846324491</v>
       </c>
       <c r="T4">
-        <v>0.03378931947294697</v>
+        <v>0.09483404869534075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.29804422199221</v>
+        <v>4.199582666666667</v>
       </c>
       <c r="H5">
-        <v>3.29804422199221</v>
+        <v>12.598748</v>
       </c>
       <c r="I5">
-        <v>0.3141750237007455</v>
+        <v>0.3470882463138872</v>
       </c>
       <c r="J5">
-        <v>0.3141750237007455</v>
+        <v>0.3745187327618799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="N5">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="O5">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="P5">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="Q5">
-        <v>27.42159163778724</v>
+        <v>40.27296887558001</v>
       </c>
       <c r="R5">
-        <v>27.42159163778724</v>
+        <v>241.63781325348</v>
       </c>
       <c r="S5">
-        <v>0.1353305036201134</v>
+        <v>0.116171657761404</v>
       </c>
       <c r="T5">
-        <v>0.1353305036201134</v>
+        <v>0.09406288498480302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.34235392573114</v>
+        <v>4.362043666666667</v>
       </c>
       <c r="H6">
-        <v>4.34235392573114</v>
+        <v>13.086131</v>
       </c>
       <c r="I6">
-        <v>0.4136570208599308</v>
+        <v>0.3605153670685209</v>
       </c>
       <c r="J6">
-        <v>0.4136570208599308</v>
+        <v>0.3890070028288486</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="N6">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="O6">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="P6">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="Q6">
-        <v>9.633024176657717</v>
+        <v>10.97483207263467</v>
       </c>
       <c r="R6">
-        <v>9.633024176657717</v>
+        <v>98.77348865371199</v>
       </c>
       <c r="S6">
-        <v>0.04754071282337181</v>
+        <v>0.03165806919946455</v>
       </c>
       <c r="T6">
-        <v>0.04754071282337181</v>
+        <v>0.03844977397240227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.34235392573114</v>
+        <v>4.362043666666667</v>
       </c>
       <c r="H7">
-        <v>4.34235392573114</v>
+        <v>13.086131</v>
       </c>
       <c r="I7">
-        <v>0.4136570208599308</v>
+        <v>0.3605153670685209</v>
       </c>
       <c r="J7">
-        <v>0.4136570208599308</v>
+        <v>0.3890070028288486</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="N7">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="O7">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="P7">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="Q7">
-        <v>29.06591038182114</v>
+        <v>44.05737676469845</v>
       </c>
       <c r="R7">
-        <v>29.06591038182114</v>
+        <v>396.516390882286</v>
       </c>
       <c r="S7">
-        <v>0.1434455133788999</v>
+        <v>0.1270881844143671</v>
       </c>
       <c r="T7">
-        <v>0.1434455133788999</v>
+        <v>0.1543528107954872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.34235392573114</v>
+        <v>4.362043666666667</v>
       </c>
       <c r="H8">
-        <v>4.34235392573114</v>
+        <v>13.086131</v>
       </c>
       <c r="I8">
-        <v>0.4136570208599308</v>
+        <v>0.3605153670685209</v>
       </c>
       <c r="J8">
-        <v>0.4136570208599308</v>
+        <v>0.3890070028288486</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="N8">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="O8">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="P8">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="Q8">
-        <v>9.01457278043868</v>
+        <v>28.11591741115344</v>
       </c>
       <c r="R8">
-        <v>9.01457278043868</v>
+        <v>253.043256700381</v>
       </c>
       <c r="S8">
-        <v>0.04448854356855906</v>
+        <v>0.08110335111442354</v>
       </c>
       <c r="T8">
-        <v>0.04448854356855906</v>
+        <v>0.09850270713309037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.34235392573114</v>
+        <v>4.362043666666667</v>
       </c>
       <c r="H9">
-        <v>4.34235392573114</v>
+        <v>13.086131</v>
       </c>
       <c r="I9">
-        <v>0.4136570208599308</v>
+        <v>0.3605153670685209</v>
       </c>
       <c r="J9">
-        <v>0.4136570208599308</v>
+        <v>0.3890070028288486</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="N9">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="O9">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="P9">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="Q9">
-        <v>36.1045056049048</v>
+        <v>41.830930062635</v>
       </c>
       <c r="R9">
-        <v>36.1045056049048</v>
+        <v>250.98558037581</v>
       </c>
       <c r="S9">
-        <v>0.1781822510891001</v>
+        <v>0.1206657623402658</v>
       </c>
       <c r="T9">
-        <v>0.1781822510891001</v>
+        <v>0.09770171092786879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.231368399240524</v>
+        <v>0.7916129999999999</v>
       </c>
       <c r="H10">
-        <v>0.231368399240524</v>
+        <v>2.374839</v>
       </c>
       <c r="I10">
-        <v>0.02204038739998643</v>
+        <v>0.0654254457496749</v>
       </c>
       <c r="J10">
-        <v>0.02204038739998643</v>
+        <v>0.07059603801849913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="N10">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="O10">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="P10">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="Q10">
-        <v>0.513264791796835</v>
+        <v>1.991685642192</v>
       </c>
       <c r="R10">
-        <v>0.513264791796835</v>
+        <v>17.925170779728</v>
       </c>
       <c r="S10">
-        <v>0.00253305437852926</v>
+        <v>0.005745228853324729</v>
       </c>
       <c r="T10">
-        <v>0.00253305437852926</v>
+        <v>0.006977770799546927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.231368399240524</v>
+        <v>0.7916129999999999</v>
       </c>
       <c r="H11">
-        <v>0.231368399240524</v>
+        <v>2.374839</v>
       </c>
       <c r="I11">
-        <v>0.02204038739998643</v>
+        <v>0.0654254457496749</v>
       </c>
       <c r="J11">
-        <v>0.02204038739998643</v>
+        <v>0.07059603801849913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="N11">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="O11">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="P11">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="Q11">
-        <v>1.548683795132655</v>
+        <v>7.995424818725999</v>
       </c>
       <c r="R11">
-        <v>1.548683795132655</v>
+        <v>71.95882336853398</v>
       </c>
       <c r="S11">
-        <v>0.007643034026325503</v>
+        <v>0.02306365241081807</v>
       </c>
       <c r="T11">
-        <v>0.007643034026325503</v>
+        <v>0.0280115700230071</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.231368399240524</v>
+        <v>0.7916129999999999</v>
       </c>
       <c r="H12">
-        <v>0.231368399240524</v>
+        <v>2.374839</v>
       </c>
       <c r="I12">
-        <v>0.02204038739998643</v>
+        <v>0.0654254457496749</v>
       </c>
       <c r="J12">
-        <v>0.02204038739998643</v>
+        <v>0.07059603801849913</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="N12">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="O12">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="P12">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="Q12">
-        <v>0.4803125930588722</v>
+        <v>5.102407823120999</v>
       </c>
       <c r="R12">
-        <v>0.4803125930588722</v>
+        <v>45.92167040808899</v>
       </c>
       <c r="S12">
-        <v>0.002370429330738329</v>
+        <v>0.01471843750129251</v>
       </c>
       <c r="T12">
-        <v>0.002370429330738329</v>
+        <v>0.01787603001263255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.231368399240524</v>
+        <v>0.7916129999999999</v>
       </c>
       <c r="H13">
-        <v>0.231368399240524</v>
+        <v>2.374839</v>
       </c>
       <c r="I13">
-        <v>0.02204038739998643</v>
+        <v>0.0654254457496749</v>
       </c>
       <c r="J13">
-        <v>0.02204038739998643</v>
+        <v>0.07059603801849913</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="N13">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="O13">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="P13">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="Q13">
-        <v>1.923712762720244</v>
+        <v>7.591374724814999</v>
       </c>
       <c r="R13">
-        <v>1.923712762720244</v>
+        <v>45.54824834889</v>
       </c>
       <c r="S13">
-        <v>0.009493869664393339</v>
+        <v>0.0218981269842396</v>
       </c>
       <c r="T13">
-        <v>0.009493869664393339</v>
+        <v>0.01773066718331255</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1281,49 +1281,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.62570770526576</v>
+        <v>0.08766133333333333</v>
       </c>
       <c r="H14">
-        <v>2.62570770526576</v>
+        <v>0.262984</v>
       </c>
       <c r="I14">
-        <v>0.2501275680393374</v>
+        <v>0.007245057633394309</v>
       </c>
       <c r="J14">
-        <v>0.2501275680393374</v>
+        <v>0.007817636674425921</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="N14">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="O14">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="P14">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="Q14">
-        <v>5.824837458729887</v>
+        <v>0.2205545120853333</v>
       </c>
       <c r="R14">
-        <v>5.824837458729887</v>
+        <v>1.984990608768</v>
       </c>
       <c r="S14">
-        <v>0.02874662409124937</v>
+        <v>0.0006362129242288638</v>
       </c>
       <c r="T14">
-        <v>0.02874662409124937</v>
+        <v>0.0007727016761759637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.62570770526576</v>
+        <v>0.08766133333333333</v>
       </c>
       <c r="H15">
-        <v>2.62570770526576</v>
+        <v>0.262984</v>
       </c>
       <c r="I15">
-        <v>0.2501275680393374</v>
+        <v>0.007245057633394309</v>
       </c>
       <c r="J15">
-        <v>0.2501275680393374</v>
+        <v>0.007817636674425921</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="N15">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="O15">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="P15">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="Q15">
-        <v>17.57539485620389</v>
+        <v>0.8853942522115555</v>
       </c>
       <c r="R15">
-        <v>17.57539485620389</v>
+        <v>7.968548269904</v>
       </c>
       <c r="S15">
-        <v>0.08673774551929518</v>
+        <v>0.002554013794453679</v>
       </c>
       <c r="T15">
-        <v>0.08673774551929518</v>
+        <v>0.003101934375732629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.62570770526576</v>
+        <v>0.08766133333333333</v>
       </c>
       <c r="H16">
-        <v>2.62570770526576</v>
+        <v>0.262984</v>
       </c>
       <c r="I16">
-        <v>0.2501275680393374</v>
+        <v>0.007245057633394309</v>
       </c>
       <c r="J16">
-        <v>0.2501275680393374</v>
+        <v>0.007817636674425921</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="N16">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="O16">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="P16">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="Q16">
-        <v>5.450876094880146</v>
+        <v>0.5650284583315556</v>
       </c>
       <c r="R16">
-        <v>5.450876094880146</v>
+        <v>5.085256124983999</v>
       </c>
       <c r="S16">
-        <v>0.02690105727030266</v>
+        <v>0.00162988462284808</v>
       </c>
       <c r="T16">
-        <v>0.02690105727030266</v>
+        <v>0.001979548877562715</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08766133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.262984</v>
+      </c>
+      <c r="I17">
+        <v>0.007245057633394309</v>
+      </c>
+      <c r="J17">
+        <v>0.007817636674425921</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.589755</v>
+      </c>
+      <c r="N17">
+        <v>19.17951</v>
+      </c>
+      <c r="O17">
+        <v>0.3347035199121805</v>
+      </c>
+      <c r="P17">
+        <v>0.2511566892559376</v>
+      </c>
+      <c r="Q17">
+        <v>0.84065070964</v>
+      </c>
+      <c r="R17">
+        <v>5.04390425784</v>
+      </c>
+      <c r="S17">
+        <v>0.002424946291863688</v>
+      </c>
+      <c r="T17">
+        <v>0.001963451744954613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.658566</v>
+      </c>
+      <c r="H18">
+        <v>5.317132</v>
+      </c>
+      <c r="I18">
+        <v>0.2197258832345227</v>
+      </c>
+      <c r="J18">
+        <v>0.1580605897163464</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.515984</v>
+      </c>
+      <c r="N18">
+        <v>7.547952</v>
+      </c>
+      <c r="O18">
+        <v>0.08781336966822693</v>
+      </c>
+      <c r="P18">
+        <v>0.09884082726736673</v>
+      </c>
+      <c r="Q18">
+        <v>6.688909518944</v>
+      </c>
+      <c r="R18">
+        <v>40.133457113664</v>
+      </c>
+      <c r="S18">
+        <v>0.01929487021015081</v>
+      </c>
+      <c r="T18">
+        <v>0.01562283944593152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.658566</v>
+      </c>
+      <c r="H19">
+        <v>5.317132</v>
+      </c>
+      <c r="I19">
+        <v>0.2197258832345227</v>
+      </c>
+      <c r="J19">
+        <v>0.1580605897163464</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.10016866666667</v>
+      </c>
+      <c r="N19">
+        <v>30.300506</v>
+      </c>
+      <c r="O19">
+        <v>0.3525180783492434</v>
+      </c>
+      <c r="P19">
+        <v>0.3967867150797739</v>
+      </c>
+      <c r="Q19">
+        <v>26.85196501146534</v>
+      </c>
+      <c r="R19">
+        <v>161.111790068792</v>
+      </c>
+      <c r="S19">
+        <v>0.07745734612142419</v>
+      </c>
+      <c r="T19">
+        <v>0.06271634217712098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.62570770526576</v>
-      </c>
-      <c r="H17">
-        <v>2.62570770526576</v>
-      </c>
-      <c r="I17">
-        <v>0.2501275680393374</v>
-      </c>
-      <c r="J17">
-        <v>0.2501275680393374</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>8.31450089569236</v>
-      </c>
-      <c r="N17">
-        <v>8.31450089569236</v>
-      </c>
-      <c r="O17">
-        <v>0.430748765532097</v>
-      </c>
-      <c r="P17">
-        <v>0.430748765532097</v>
-      </c>
-      <c r="Q17">
-        <v>21.83144906725849</v>
-      </c>
-      <c r="R17">
-        <v>21.83144906725849</v>
-      </c>
-      <c r="S17">
-        <v>0.1077421411584902</v>
-      </c>
-      <c r="T17">
-        <v>0.1077421411584902</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.658566</v>
+      </c>
+      <c r="H20">
+        <v>5.317132</v>
+      </c>
+      <c r="I20">
+        <v>0.2197258832345227</v>
+      </c>
+      <c r="J20">
+        <v>0.1580605897163464</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.445583666666667</v>
+      </c>
+      <c r="N20">
+        <v>19.336751</v>
+      </c>
+      <c r="O20">
+        <v>0.2249650320703493</v>
+      </c>
+      <c r="P20">
+        <v>0.2532157683969216</v>
+      </c>
+      <c r="Q20">
+        <v>17.13600958635533</v>
+      </c>
+      <c r="R20">
+        <v>102.816057518132</v>
+      </c>
+      <c r="S20">
+        <v>0.04943064036854022</v>
+      </c>
+      <c r="T20">
+        <v>0.04002343367829522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.658566</v>
+      </c>
+      <c r="H21">
+        <v>5.317132</v>
+      </c>
+      <c r="I21">
+        <v>0.2197258832345227</v>
+      </c>
+      <c r="J21">
+        <v>0.1580605897163464</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.589755</v>
+      </c>
+      <c r="N21">
+        <v>19.17951</v>
+      </c>
+      <c r="O21">
+        <v>0.3347035199121805</v>
+      </c>
+      <c r="P21">
+        <v>0.2511566892559376</v>
+      </c>
+      <c r="Q21">
+        <v>25.49499659133</v>
+      </c>
+      <c r="R21">
+        <v>101.97998636532</v>
+      </c>
+      <c r="S21">
+        <v>0.07354302653440753</v>
+      </c>
+      <c r="T21">
+        <v>0.03969797441499866</v>
       </c>
     </row>
   </sheetData>
